--- a/Model/HyperTuning_KuaiRec.xlsx
+++ b/Model/HyperTuning_KuaiRec.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linkun/Documents/R-F/Experiments/DynamicsOfCalibration/DynamicCalibrationUMAP/Model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linkun/Documents/R-F/Experiments/Code/Calibration/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD7C72D-84A9-0C4C-8B73-C01786D97C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85435C4-EB4D-1245-B75E-2DABB1F2904A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="10000" windowHeight="18680" xr2:uid="{38D346F2-5B53-D444-9AAB-35BD03402D06}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="10000" windowHeight="18680" activeTab="1" xr2:uid="{38D346F2-5B53-D444-9AAB-35BD03402D06}"/>
   </bookViews>
   <sheets>
     <sheet name="BPR" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemKNN" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>day</t>
   </si>
@@ -52,18 +53,36 @@
   <si>
     <t>recall_10</t>
   </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>shrink</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,7 +105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -96,6 +115,15 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -414,7 +442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7634F4D8-53DD-674E-B8FB-82964E9DB553}">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
@@ -1517,4 +1545,1111 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{304C967D-13EF-6A4B-9747-240BCEDD2205}">
+  <dimension ref="A1:E64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5">
+        <v>200</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+      <c r="D2" s="5">
+        <v>6.8599999999999994E-2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5">
+        <v>200</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0.1186</v>
+      </c>
+      <c r="E3" s="5">
+        <v>5.1499999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>200</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.45090000000000002</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.31919999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5">
+        <v>100</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.33689999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5">
+        <v>50</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0.58479999999999999</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.37419999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5">
+        <v>100</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0.53839999999999999</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.36330000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5">
+        <v>200</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0.49230000000000002</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.34429999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5">
+        <v>50</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.44690000000000002</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.33829999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5">
+        <v>200</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.40010000000000001</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.32469999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5">
+        <v>200</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0.3629</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.31459999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5">
+        <v>200</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0.32719999999999999</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.29570000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5">
+        <v>200</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.28760000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
+        <v>100</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5">
+        <v>200</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>0.24360000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.27429999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>200</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.27960000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5">
+        <v>200</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.27300000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="5">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5">
+        <v>200</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.27610000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5">
+        <v>200</v>
+      </c>
+      <c r="C19" s="5">
+        <v>0</v>
+      </c>
+      <c r="D19" s="5">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5">
+        <v>200</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0.1497</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.26979999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="5">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5">
+        <v>100</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D21" s="5">
+        <v>0.1333</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.26650000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5">
+        <v>200</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.1258</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.26819999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5">
+        <v>200</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D23" s="5">
+        <v>0.1196</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="5">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5">
+        <v>200</v>
+      </c>
+      <c r="C24" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="5">
+        <v>0.1089</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.2797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5">
+        <v>200</v>
+      </c>
+      <c r="C25" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="5">
+        <v>0.1028</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.28560000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5">
+        <v>200</v>
+      </c>
+      <c r="C26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D26" s="5">
+        <v>9.8100000000000007E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.28820000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5">
+        <v>200</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="5">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.28660000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5">
+        <v>200</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
+      <c r="D28" s="5">
+        <v>8.7800000000000003E-2</v>
+      </c>
+      <c r="E28" s="5">
+        <v>0.28589999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5">
+        <v>200</v>
+      </c>
+      <c r="C29" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D29" s="5">
+        <v>8.0699999999999994E-2</v>
+      </c>
+      <c r="E29" s="5">
+        <v>0.28799999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5">
+        <v>200</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
+      <c r="D30" s="5">
+        <v>7.5800000000000006E-2</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0.28789999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5">
+        <v>200</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D31" s="5">
+        <v>7.22E-2</v>
+      </c>
+      <c r="E31" s="5">
+        <v>0.2913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="5">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5">
+        <v>200</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+      <c r="D32" s="5">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E32" s="5">
+        <v>0.29010000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5">
+        <v>200</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D33" s="5">
+        <v>6.2199999999999998E-2</v>
+      </c>
+      <c r="E33" s="5">
+        <v>0.28989999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5">
+        <v>200</v>
+      </c>
+      <c r="C34" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D34" s="5">
+        <v>5.91E-2</v>
+      </c>
+      <c r="E34" s="5">
+        <v>0.2928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5">
+        <v>200</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5.6399999999999999E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>0.29680000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5">
+        <v>200</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="5">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="E36" s="5">
+        <v>0.29530000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5">
+        <v>200</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+      <c r="D37" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E37" s="5">
+        <v>0.29189999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5">
+        <v>200</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="5">
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0.2918</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5">
+        <v>200</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0</v>
+      </c>
+      <c r="D39" s="5">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="E39" s="5">
+        <v>0.28970000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5">
+        <v>200</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
+      <c r="D40" s="5">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.29270000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5">
+        <v>200</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="5">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="E41" s="5">
+        <v>0.29930000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5">
+        <v>200</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
+      <c r="D42" s="5">
+        <v>3.9399999999999998E-2</v>
+      </c>
+      <c r="E42" s="5">
+        <v>0.29720000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5">
+        <v>200</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="5">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E43" s="5">
+        <v>0.29399999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5">
+        <v>200</v>
+      </c>
+      <c r="C44" s="5">
+        <v>0</v>
+      </c>
+      <c r="D44" s="5">
+        <v>3.73E-2</v>
+      </c>
+      <c r="E44" s="5">
+        <v>0.29559999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5">
+        <v>200</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D45" s="5">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="E45" s="5">
+        <v>0.29459999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5">
+        <v>200</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
+      <c r="D46" s="5">
+        <v>3.49E-2</v>
+      </c>
+      <c r="E46" s="5">
+        <v>0.29260000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5">
+        <v>200</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="5">
+        <v>3.4500000000000003E-2</v>
+      </c>
+      <c r="E47" s="5">
+        <v>0.30320000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5">
+        <v>200</v>
+      </c>
+      <c r="C48" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0.2954</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5">
+        <v>200</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+      <c r="D49" s="5">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E49" s="5">
+        <v>0.30370000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5">
+        <v>200</v>
+      </c>
+      <c r="C50" s="5">
+        <v>0</v>
+      </c>
+      <c r="D50" s="5">
+        <v>3.1800000000000002E-2</v>
+      </c>
+      <c r="E50" s="5">
+        <v>0.3009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5">
+        <v>100</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0</v>
+      </c>
+      <c r="D51" s="5">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="E51" s="5">
+        <v>0.29759999999999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5">
+        <v>200</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0</v>
+      </c>
+      <c r="D52" s="5">
+        <v>2.93E-2</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0.29959999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5">
+        <v>200</v>
+      </c>
+      <c r="C53" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D53" s="5">
+        <v>2.8899999999999999E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <v>0.2999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5">
+        <v>200</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0</v>
+      </c>
+      <c r="D54" s="5">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E54" s="5">
+        <v>0.30690000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5">
+        <v>100</v>
+      </c>
+      <c r="C55" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D55" s="5">
+        <v>2.76E-2</v>
+      </c>
+      <c r="E55" s="5">
+        <v>0.3009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5">
+        <v>200</v>
+      </c>
+      <c r="C56" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="5">
+        <v>2.7400000000000001E-2</v>
+      </c>
+      <c r="E56" s="5">
+        <v>0.30270000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5">
+        <v>200</v>
+      </c>
+      <c r="C57" s="5">
+        <v>0</v>
+      </c>
+      <c r="D57" s="5">
+        <v>2.6700000000000002E-2</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0.30120000000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5">
+        <v>200</v>
+      </c>
+      <c r="C58" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="5">
+        <v>2.69E-2</v>
+      </c>
+      <c r="E58" s="5">
+        <v>0.31059999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5">
+        <v>200</v>
+      </c>
+      <c r="C59" s="5">
+        <v>0</v>
+      </c>
+      <c r="D59" s="5">
+        <v>2.53E-2</v>
+      </c>
+      <c r="E59" s="5">
+        <v>0.29880000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5">
+        <v>200</v>
+      </c>
+      <c r="C60" s="5">
+        <v>0</v>
+      </c>
+      <c r="D60" s="5">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E60" s="5">
+        <v>0.30359999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="5">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5">
+        <v>200</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0.31080000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5">
+        <v>200</v>
+      </c>
+      <c r="C62" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="5">
+        <v>2.52E-2</v>
+      </c>
+      <c r="E62" s="5">
+        <v>0.30940000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5">
+        <v>100</v>
+      </c>
+      <c r="C63" s="5">
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2.4899999999999999E-2</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.30590000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5">
+        <v>200</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0.31319999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>